--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13360"/>
+    <workbookView windowWidth="27240" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="4" r:id="rId1"/>
@@ -495,12 +495,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -545,6 +545,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -552,17 +560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,14 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -598,31 +589,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,8 +621,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,13 +653,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -675,17 +682,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -734,19 +734,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,37 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,13 +836,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,85 +914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +958,72 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,21 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1001,203 +1051,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,7 +1238,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,7 +1256,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1286,7 +1286,7 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1301,10 +1301,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1322,7 +1322,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,19 +1404,19 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1741,11 +1741,11 @@
   <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BX13" sqref="BX13"/>
+      <selection pane="bottomRight" activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -2397,7 +2397,7 @@
         <v>6253994132.97455</v>
       </c>
       <c r="AN5" s="57">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AO5" s="53">
         <v>0.04</v>
@@ -2429,36 +2429,36 @@
       <c r="BA5" s="41"/>
       <c r="BB5" s="45">
         <f>AM5/AN5</f>
-        <v>104233235549.576</v>
+        <v>69488823699.7172</v>
       </c>
       <c r="BC5" s="46">
         <f>AM5*(1+AO5)/(AN5-AO5)</f>
-        <v>325207694914.677</v>
+        <v>130083077965.871</v>
       </c>
       <c r="BD5" s="46">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^3*(1+AO5)/(1+AN5)^4/(AN5-AO5)</f>
-        <v>413901873063.502</v>
+        <v>161059279919.254</v>
       </c>
       <c r="BE5" s="46">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
-        <v>501316975093.837</v>
+        <v>192838301977.742</v>
       </c>
       <c r="BF5" s="65"/>
       <c r="BG5" s="62">
         <f>$AZ5+$BA5+BB5</f>
-        <v>128553075343.416</v>
+        <v>93808663493.5572</v>
       </c>
       <c r="BH5" s="62">
         <f>$AZ5+$BA5+BC5</f>
-        <v>349527534708.517</v>
+        <v>154402917759.711</v>
       </c>
       <c r="BI5" s="62">
         <f>$AZ5+$BA5+BD5</f>
-        <v>438221712857.342</v>
+        <v>185379119713.094</v>
       </c>
       <c r="BJ5" s="62">
         <f>$AZ5+$BA5+BE5</f>
-        <v>525636814887.677</v>
+        <v>217158141771.582</v>
       </c>
       <c r="BK5" s="62">
         <f>$AZ5+$BA5+BF5</f>
@@ -2470,19 +2470,19 @@
       </c>
       <c r="BM5" s="62">
         <f>BG5-$BL5</f>
-        <v>118715199360.216</v>
+        <v>83970787510.3572</v>
       </c>
       <c r="BN5" s="62">
         <f>BH5-$BL5</f>
-        <v>339689658725.317</v>
+        <v>144565041776.511</v>
       </c>
       <c r="BO5" s="62">
         <f>BI5-$BL5</f>
-        <v>428383836874.142</v>
+        <v>175541243729.894</v>
       </c>
       <c r="BP5" s="62">
         <f>BJ5-$BL5</f>
-        <v>515798938904.477</v>
+        <v>207320265788.382</v>
       </c>
       <c r="BQ5" s="62">
         <f>BK5-$BL5</f>
@@ -2490,19 +2490,19 @@
       </c>
       <c r="BR5" s="62">
         <f>BM5*(1-$E5/$D5)</f>
-        <v>118715199360.216</v>
+        <v>83970787510.3572</v>
       </c>
       <c r="BS5" s="62">
         <f>BN5*(1-$E5/$D5)</f>
-        <v>339689658725.317</v>
+        <v>144565041776.511</v>
       </c>
       <c r="BT5" s="62">
         <f>BO5*(1-$E5/$D5)</f>
-        <v>428383836874.142</v>
+        <v>175541243729.894</v>
       </c>
       <c r="BU5" s="62">
         <f>BP5*(1-$E5/$D5)</f>
-        <v>515798938904.477</v>
+        <v>207320265788.382</v>
       </c>
       <c r="BV5" s="62">
         <f>BQ5*(1-$E5/$D5)</f>
@@ -2513,19 +2513,19 @@
       </c>
       <c r="BX5" s="70">
         <f>BR5/$BW5</f>
-        <v>25.6192183011108</v>
+        <v>18.121234245806</v>
       </c>
       <c r="BY5" s="70">
         <f>BS5/$BW5</f>
-        <v>73.3063968928493</v>
+        <v>31.1977184382575</v>
       </c>
       <c r="BZ5" s="70">
         <f>BT5/$BW5</f>
-        <v>92.4469578680081</v>
+        <v>37.8825076165586</v>
       </c>
       <c r="CA5" s="70">
         <f>BU5/$BW5</f>
-        <v>111.311489063662</v>
+        <v>44.7405486079387</v>
       </c>
       <c r="CB5" s="70">
         <f>BV5/$BW5</f>
@@ -2581,7 +2581,7 @@
         <v>5000000000</v>
       </c>
       <c r="AN6" s="57">
-        <v>0.07</v>
+        <v>0.035</v>
       </c>
       <c r="AO6" s="53">
         <v>0.04</v>
@@ -2613,36 +2613,36 @@
       <c r="BA6" s="41"/>
       <c r="BB6" s="45">
         <f>AM6/AN6</f>
-        <v>71428571428.5714</v>
+        <v>142857142857.143</v>
       </c>
       <c r="BC6" s="46">
         <f>AM6*(1+AO6)/(AN6-AO6)</f>
-        <v>173333333333.333</v>
+        <v>-1040000000000</v>
       </c>
       <c r="BD6" s="46">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^3*(1+AO6)/(1+AN6)^4/(AN6-AO6)</f>
-        <v>218470044841.938</v>
+        <v>-1359781780348.97</v>
       </c>
       <c r="BE6" s="46">
         <f>AM6*(1+AP6)/(1+AN6)+AM6*(1+AP6)^2/(1+AN6)^2+AM6*(1+AP6)^3/(1+AN6)^3+AM6*(1+AP6)^4/(1+AN6)^4+AM6*(1+AP6)^5/(1+AN6)^5+AM6*(1+AP6)^5*(1+AO6)/(1+AN6)^6/(AN6-AO6)</f>
-        <v>263509157396.683</v>
+        <v>-1667014543640.7</v>
       </c>
       <c r="BF6" s="65"/>
       <c r="BG6" s="62">
         <f>$AZ6+$BA6+BB6</f>
-        <v>96640870241.9714</v>
+        <v>168069441670.543</v>
       </c>
       <c r="BH6" s="62">
         <f>$AZ6+$BA6+BC6</f>
-        <v>198545632146.733</v>
+        <v>-1014787701186.6</v>
       </c>
       <c r="BI6" s="62">
         <f>$AZ6+$BA6+BD6</f>
-        <v>243682343655.338</v>
+        <v>-1334569481535.57</v>
       </c>
       <c r="BJ6" s="62">
         <f>$AZ6+$BA6+BE6</f>
-        <v>288721456210.083</v>
+        <v>-1641802244827.3</v>
       </c>
       <c r="BK6" s="62">
         <f>$AZ6+$BA6+BF6</f>
@@ -2654,19 +2654,19 @@
       </c>
       <c r="BM6" s="62">
         <f>BG6-$BL6</f>
-        <v>86802994258.7714</v>
+        <v>158231565687.343</v>
       </c>
       <c r="BN6" s="62">
         <f>BH6-$BL6</f>
-        <v>188707756163.533</v>
+        <v>-1024625577169.8</v>
       </c>
       <c r="BO6" s="62">
         <f>BI6-$BL6</f>
-        <v>233844467672.138</v>
+        <v>-1344407357518.77</v>
       </c>
       <c r="BP6" s="62">
         <f>BJ6-$BL6</f>
-        <v>278883580226.883</v>
+        <v>-1651640120810.5</v>
       </c>
       <c r="BQ6" s="62">
         <f>BK6-$BL6</f>
@@ -2674,19 +2674,19 @@
       </c>
       <c r="BR6" s="62">
         <f>BM6*(1-$E6/$D6)</f>
-        <v>86439781981.1104</v>
+        <v>157569472773.821</v>
       </c>
       <c r="BS6" s="62">
         <f>BN6*(1-$E6/$D6)</f>
-        <v>187918140845.378</v>
+        <v>-1020338206753.47</v>
       </c>
       <c r="BT6" s="62">
         <f>BO6*(1-$E6/$D6)</f>
-        <v>232865985507.474</v>
+        <v>-1338781914956.58</v>
       </c>
       <c r="BU6" s="62">
         <f>BP6*(1-$E6/$D6)</f>
-        <v>277716639601.834</v>
+        <v>-1644729115317.21</v>
       </c>
       <c r="BV6" s="62">
         <f>BQ6*(1-$E6/$D6)</f>
@@ -2697,19 +2697,19 @@
       </c>
       <c r="BX6" s="70">
         <f>BR6/$BW6</f>
-        <v>20.5194585245042</v>
+        <v>37.4045397525063</v>
       </c>
       <c r="BY6" s="70">
         <f>BS6/$BW6</f>
-        <v>44.6088410764539</v>
+        <v>-242.212405383209</v>
       </c>
       <c r="BZ6" s="70">
         <f>BT6/$BW6</f>
-        <v>55.2787596390815</v>
+        <v>-317.805984093193</v>
       </c>
       <c r="CA6" s="70">
         <f>BU6/$BW6</f>
-        <v>65.9256066740176</v>
+        <v>-390.433086390376</v>
       </c>
       <c r="CB6" s="70">
         <f>BV6/$BW6</f>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="12760"/>
+    <workbookView windowWidth="27180" windowHeight="12760"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="4" r:id="rId1"/>
@@ -494,13 +494,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -545,14 +545,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -560,8 +552,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,17 +582,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,14 +623,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -621,54 +630,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,10 +645,47 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -734,7 +734,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,25 +812,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,31 +866,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,25 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,61 +890,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,7 +908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,15 +954,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -974,6 +965,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,20 +1010,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,26 +1032,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,148 +1056,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1238,7 +1238,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,7 +1256,7 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1286,7 +1286,7 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1301,16 +1301,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1322,7 +1322,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,19 +1404,19 @@
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1741,11 +1741,11 @@
   <dimension ref="A1:CD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN6" sqref="AN6"/>
+      <selection pane="bottomRight" activeCell="BE4" sqref="BE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -2270,7 +2270,7 @@
         <v>6253994132.97455</v>
       </c>
       <c r="AN4" s="54">
-        <v>0.035</v>
+        <v>0.0229</v>
       </c>
       <c r="AO4" s="53">
         <v>0.04</v>
@@ -2302,19 +2302,16 @@
       <c r="BA4" s="41"/>
       <c r="BB4" s="45">
         <f>AM4/AN4</f>
-        <v>178685546656.416</v>
+        <v>273100180479.238</v>
       </c>
       <c r="BC4" s="46">
         <f>AM4*(1+AO4)/(AN4-AO4)</f>
-        <v>-1300830779658.71</v>
-      </c>
-      <c r="BD4" s="46">
-        <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^3*(1+AO4)/(1+AN4)^4/(AN4-AO4)</f>
-        <v>-1700813455285.63</v>
-      </c>
+        <v>-380359877093.189</v>
+      </c>
+      <c r="BD4" s="46"/>
       <c r="BE4" s="46">
         <f>AM4*(1+AP4)/(1+AN4)+AM4*(1+AP4)^2/(1+AN4)^2+AM4*(1+AP4)^3/(1+AN4)^3+AM4*(1+AP4)^4/(1+AN4)^4+AM4*(1+AP4)^5/(1+AN4)^5+AM4*(1+AP4)^5*(1+AO4)/(1+AN4)^6/(AN4-AO4)</f>
-        <v>-2085099835102.44</v>
+        <v>-622812562261.277</v>
       </c>
       <c r="BF4" s="65"/>
       <c r="BG4" s="46"/>
@@ -2341,11 +2338,11 @@
       <c r="CB4" s="69"/>
       <c r="CC4" s="10">
         <f>(AM4*(1+AP4)^5)/(1+AN4)^5</f>
-        <v>10591193979.5332</v>
+        <v>11232612532.4779</v>
       </c>
       <c r="CD4" s="10">
         <f>CC4+AZ4</f>
-        <v>34911033773.3732</v>
+        <v>35552452326.3179</v>
       </c>
     </row>
     <row r="5" spans="1:80">

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/选股标准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27180" windowHeight="12760"/>
+    <workbookView windowWidth="27180" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="估值" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="155">
   <si>
     <t>年份</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>归属于上市股东的股权价值</t>
+  </si>
+  <si>
+    <t>归属于上市公司母公司股东的股权价值</t>
   </si>
   <si>
     <t>发行的股票数量</t>
@@ -494,13 +497,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;#,##0.00_);[Red]\(&quot;￥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -546,9 +549,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -560,23 +578,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,11 +601,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,22 +633,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,11 +670,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -667,23 +685,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,7 +737,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,19 +839,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,13 +899,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,138 +917,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -955,6 +958,70 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -965,15 +1032,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,9 +1068,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,177 +1091,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1238,81 +1278,81 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1322,7 +1362,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,23 +1441,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1738,14 +1796,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CD14"/>
+  <dimension ref="A1:CI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BT3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="BE4" sqref="BE4"/>
+      <selection pane="bottomRight" activeCell="BW5" sqref="BW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88461538461539" defaultRowHeight="16.8"/>
@@ -1793,15 +1851,15 @@
     <col min="67" max="68" width="23.4615384615385" style="39" customWidth="1"/>
     <col min="69" max="70" width="20.9230769230769" style="39" customWidth="1"/>
     <col min="71" max="73" width="22.0769230769231" style="39" customWidth="1"/>
-    <col min="74" max="74" width="20.9230769230769" style="39" customWidth="1"/>
-    <col min="75" max="75" width="19.8461538461538" style="38" customWidth="1"/>
-    <col min="76" max="79" width="12.8846153846154" style="40"/>
-    <col min="80" max="80" width="11.8846153846154" style="40" customWidth="1"/>
-    <col min="81" max="81" width="23.0769230769231" style="10" customWidth="1"/>
-    <col min="82" max="82" width="24.6730769230769" style="10" customWidth="1"/>
+    <col min="74" max="75" width="20.9230769230769" style="39" customWidth="1"/>
+    <col min="76" max="80" width="19.8461538461538" style="38" customWidth="1"/>
+    <col min="81" max="84" width="12.8846153846154" style="40"/>
+    <col min="85" max="85" width="11.8846153846154" style="40" customWidth="1"/>
+    <col min="86" max="86" width="23.0769230769231" style="10" customWidth="1"/>
+    <col min="87" max="87" width="24.6730769230769" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:87">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1953,21 +2011,28 @@
       <c r="BW1" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="BX1" s="68" t="s">
-        <v>37</v>
-      </c>
+      <c r="BX1" s="68"/>
       <c r="BY1" s="68"/>
       <c r="BZ1" s="68"/>
-      <c r="CA1" s="68"/>
-      <c r="CB1" s="68"/>
-      <c r="CC1" s="10" t="s">
+      <c r="CA1" s="73"/>
+      <c r="CB1" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC1" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="CD1" s="10" t="s">
+      <c r="CD1" s="75"/>
+      <c r="CE1" s="75"/>
+      <c r="CF1" s="75"/>
+      <c r="CG1" s="75"/>
+      <c r="CH1" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" ht="68" spans="1:80">
+      <c r="CI1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" ht="68" spans="1:85">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1979,64 +2044,64 @@
       <c r="I2" s="44"/>
       <c r="J2" s="46"/>
       <c r="K2" s="44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L2" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="V2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="W2" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="X2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="Y2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Z2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="AA2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="AB2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="AC2" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="U2" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB2" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC2" s="48" t="s">
-        <v>48</v>
-      </c>
       <c r="AD2" s="48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE2" s="46"/>
       <c r="AF2" s="46"/>
@@ -2049,13 +2114,13 @@
       <c r="AM2" s="55"/>
       <c r="AN2" s="54"/>
       <c r="AO2" s="61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AP2" s="61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AQ2" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AR2" s="44"/>
       <c r="AS2" s="41"/>
@@ -2068,84 +2133,99 @@
       <c r="AZ2" s="46"/>
       <c r="BA2" s="41"/>
       <c r="BB2" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BC2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BD2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BE2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="BF2" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="BG2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="50" t="s">
+      <c r="BH2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="50" t="s">
+      <c r="BI2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="BF2" s="65" t="s">
+      <c r="BJ2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BG2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="BH2" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="BI2" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="BJ2" s="50" t="s">
-        <v>56</v>
-      </c>
       <c r="BK2" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BL2" s="66"/>
       <c r="BM2" s="46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BN2" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="BO2" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="BP2" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="BQ2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BO2" s="50" t="s">
+      <c r="BS2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BP2" s="50" t="s">
+      <c r="BT2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="BQ2" s="46" t="s">
+      <c r="BU2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BR2" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="BS2" s="46" t="s">
+      <c r="BV2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BT2" s="50" t="s">
+      <c r="BX2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BU2" s="50" t="s">
+      <c r="BY2" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="BV2" s="46" t="s">
+      <c r="BZ2" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="BW2" s="67"/>
-      <c r="BX2" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="BY2" s="69" t="s">
+      <c r="CA2" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="CB2" s="74"/>
+      <c r="CC2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="BZ2" s="72" t="s">
+      <c r="CD2" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="CA2" s="72" t="s">
+      <c r="CE2" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="CB2" s="69" t="s">
+      <c r="CF2" s="77" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:80">
+      <c r="CG2" s="76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:85">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
@@ -2220,14 +2300,19 @@
       <c r="BT3" s="50"/>
       <c r="BU3" s="50"/>
       <c r="BV3" s="46"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="69"/>
-    </row>
-    <row r="4" spans="1:82">
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="74"/>
+      <c r="CC3" s="76"/>
+      <c r="CD3" s="76"/>
+      <c r="CE3" s="77"/>
+      <c r="CF3" s="77"/>
+      <c r="CG3" s="76"/>
+    </row>
+    <row r="4" spans="1:87">
       <c r="A4" s="41"/>
       <c r="B4" s="41"/>
       <c r="C4" s="41"/>
@@ -2330,22 +2415,27 @@
       <c r="BT4" s="50"/>
       <c r="BU4" s="50"/>
       <c r="BV4" s="46"/>
-      <c r="BW4" s="67"/>
-      <c r="BX4" s="69"/>
-      <c r="BY4" s="69"/>
-      <c r="BZ4" s="72"/>
-      <c r="CA4" s="72"/>
-      <c r="CB4" s="69"/>
-      <c r="CC4" s="10">
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="70"/>
+      <c r="BY4" s="70"/>
+      <c r="BZ4" s="70"/>
+      <c r="CA4" s="70"/>
+      <c r="CB4" s="74"/>
+      <c r="CC4" s="76"/>
+      <c r="CD4" s="76"/>
+      <c r="CE4" s="77"/>
+      <c r="CF4" s="77"/>
+      <c r="CG4" s="76"/>
+      <c r="CH4" s="10">
         <f>(AM4*(1+AP4)^5)/(1+AN4)^5</f>
         <v>11232612532.4779</v>
       </c>
-      <c r="CD4" s="10">
-        <f>CC4+AZ4</f>
+      <c r="CI4" s="10">
+        <f>CH4+AZ4</f>
         <v>35552452326.3179</v>
       </c>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:85">
       <c r="A5" s="41">
         <v>2022</v>
       </c>
@@ -2397,7 +2487,7 @@
         <v>0.09</v>
       </c>
       <c r="AO5" s="53">
-        <v>0.04</v>
+        <v>0.025</v>
       </c>
       <c r="AP5" s="53">
         <v>0.15</v>
@@ -2430,15 +2520,15 @@
       </c>
       <c r="BC5" s="46">
         <f>AM5*(1+AO5)/(AN5-AO5)</f>
-        <v>130083077965.871</v>
+        <v>98620676712.291</v>
       </c>
       <c r="BD5" s="46">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^3*(1+AO5)/(1+AN5)^4/(AN5-AO5)</f>
-        <v>161059279919.254</v>
+        <v>127160864717.785</v>
       </c>
       <c r="BE5" s="46">
         <f>AM5*(1+AP5)/(1+AN5)+AM5*(1+AP5)^2/(1+AN5)^2+AM5*(1+AP5)^3/(1+AN5)^3+AM5*(1+AP5)^4/(1+AN5)^4+AM5*(1+AP5)^5/(1+AN5)^5+AM5*(1+AP5)^5*(1+AO5)/(1+AN5)^6/(AN5-AO5)</f>
-        <v>192838301977.742</v>
+        <v>155105237333.4</v>
       </c>
       <c r="BF5" s="65"/>
       <c r="BG5" s="62">
@@ -2447,15 +2537,15 @@
       </c>
       <c r="BH5" s="62">
         <f>$AZ5+$BA5+BC5</f>
-        <v>154402917759.711</v>
+        <v>122940516506.131</v>
       </c>
       <c r="BI5" s="62">
         <f>$AZ5+$BA5+BD5</f>
-        <v>185379119713.094</v>
+        <v>151480704511.625</v>
       </c>
       <c r="BJ5" s="62">
         <f>$AZ5+$BA5+BE5</f>
-        <v>217158141771.582</v>
+        <v>179425077127.24</v>
       </c>
       <c r="BK5" s="62">
         <f>$AZ5+$BA5+BF5</f>
@@ -2471,15 +2561,15 @@
       </c>
       <c r="BN5" s="62">
         <f>BH5-$BL5</f>
-        <v>144565041776.511</v>
+        <v>113102640522.931</v>
       </c>
       <c r="BO5" s="62">
         <f>BI5-$BL5</f>
-        <v>175541243729.894</v>
+        <v>141642828528.425</v>
       </c>
       <c r="BP5" s="62">
         <f>BJ5-$BL5</f>
-        <v>207320265788.382</v>
+        <v>169587201144.04</v>
       </c>
       <c r="BQ5" s="62">
         <f>BK5-$BL5</f>
@@ -2491,45 +2581,50 @@
       </c>
       <c r="BS5" s="62">
         <f>BN5*(1-$E5/$D5)</f>
-        <v>144565041776.511</v>
+        <v>113102640522.931</v>
       </c>
       <c r="BT5" s="62">
         <f>BO5*(1-$E5/$D5)</f>
-        <v>175541243729.894</v>
+        <v>141642828528.425</v>
       </c>
       <c r="BU5" s="62">
         <f>BP5*(1-$E5/$D5)</f>
-        <v>207320265788.382</v>
+        <v>169587201144.04</v>
       </c>
       <c r="BV5" s="62">
         <f>BQ5*(1-$E5/$D5)</f>
         <v>14481963810.64</v>
       </c>
-      <c r="BW5" s="67">
+      <c r="BW5" s="71"/>
+      <c r="BX5" s="70"/>
+      <c r="BY5" s="70"/>
+      <c r="BZ5" s="70"/>
+      <c r="CA5" s="70"/>
+      <c r="CB5" s="74">
         <v>4633833787</v>
       </c>
-      <c r="BX5" s="70">
-        <f>BR5/$BW5</f>
+      <c r="CC5" s="78">
+        <f>BR5/$CB5</f>
         <v>18.121234245806</v>
       </c>
-      <c r="BY5" s="70">
-        <f>BS5/$BW5</f>
-        <v>31.1977184382575</v>
-      </c>
-      <c r="BZ5" s="70">
-        <f>BT5/$BW5</f>
-        <v>37.8825076165586</v>
-      </c>
-      <c r="CA5" s="70">
-        <f>BU5/$BW5</f>
-        <v>44.7405486079387</v>
-      </c>
-      <c r="CB5" s="70">
-        <f>BV5/$BW5</f>
+      <c r="CD5" s="78">
+        <f>BS5/$CB5</f>
+        <v>24.4080054921769</v>
+      </c>
+      <c r="CE5" s="78">
+        <f>BT5/$CB5</f>
+        <v>30.5670930463231</v>
+      </c>
+      <c r="CF5" s="78">
+        <f>BU5/$CB5</f>
+        <v>36.5976012389156</v>
+      </c>
+      <c r="CG5" s="78">
+        <f>BV5/$CB5</f>
         <v>3.1252661351964</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:85">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42">
@@ -2689,36 +2784,41 @@
         <f>BQ6*(1-$E6/$D6)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW6" s="59">
+      <c r="BW6" s="62"/>
+      <c r="BX6" s="59"/>
+      <c r="BY6" s="59"/>
+      <c r="BZ6" s="59"/>
+      <c r="CA6" s="59"/>
+      <c r="CB6" s="59">
         <v>4212576169</v>
       </c>
-      <c r="BX6" s="70">
-        <f>BR6/$BW6</f>
+      <c r="CC6" s="78">
+        <f>BR6/$CB6</f>
         <v>37.4045397525063</v>
       </c>
-      <c r="BY6" s="70">
-        <f>BS6/$BW6</f>
+      <c r="CD6" s="78">
+        <f>BS6/$CB6</f>
         <v>-242.212405383209</v>
       </c>
-      <c r="BZ6" s="70">
-        <f>BT6/$BW6</f>
+      <c r="CE6" s="78">
+        <f>BT6/$CB6</f>
         <v>-317.805984093193</v>
       </c>
-      <c r="CA6" s="70">
-        <f>BU6/$BW6</f>
+      <c r="CF6" s="78">
+        <f>BU6/$CB6</f>
         <v>-390.433086390376</v>
       </c>
-      <c r="CB6" s="70">
-        <f>BV6/$BW6</f>
+      <c r="CG6" s="78">
+        <f>BV6/$CB6</f>
         <v>3.63437729650208</v>
       </c>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:85">
       <c r="A7" s="43">
         <v>2021</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="42">
         <v>33337724549.58</v>
@@ -2925,36 +3025,41 @@
         <f>BQ7*(1-$E7/$D7)</f>
         <v>15310091188.3993</v>
       </c>
-      <c r="BW7" s="59">
+      <c r="BW7" s="62"/>
+      <c r="BX7" s="59"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="59"/>
+      <c r="CB7" s="59">
         <v>4212576170</v>
       </c>
-      <c r="BX7" s="70">
-        <f>BR7/$BW7</f>
+      <c r="CC7" s="78">
+        <f>BR7/$CB7</f>
         <v>17.731809937605</v>
       </c>
-      <c r="BY7" s="70">
-        <f>BS7/$BW7</f>
+      <c r="CD7" s="78">
+        <f>BS7/$CB7</f>
         <v>37.8441471734761</v>
       </c>
-      <c r="BZ7" s="70">
-        <f>BT7/$BW7</f>
+      <c r="CE7" s="78">
+        <f>BT7/$CB7</f>
         <v>46.7525116758896</v>
       </c>
-      <c r="CA7" s="70">
-        <f>BU7/$BW7</f>
+      <c r="CF7" s="78">
+        <f>BU7/$CB7</f>
         <v>55.6416136528117</v>
       </c>
-      <c r="CB7" s="70">
-        <f>BV7/$BW7</f>
+      <c r="CG7" s="78">
+        <f>BV7/$CB7</f>
         <v>3.63437729563934</v>
       </c>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:85">
       <c r="A8" s="43">
         <v>2021</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="42"/>
@@ -3028,19 +3133,24 @@
       <c r="BT8" s="62"/>
       <c r="BU8" s="62"/>
       <c r="BV8" s="62"/>
-      <c r="BW8" s="71"/>
-      <c r="BX8" s="70"/>
-      <c r="BY8" s="70"/>
-      <c r="BZ8" s="70"/>
-      <c r="CA8" s="70"/>
-      <c r="CB8" s="70"/>
-    </row>
-    <row r="9" spans="1:80">
+      <c r="BW8" s="62"/>
+      <c r="BX8" s="72"/>
+      <c r="BY8" s="72"/>
+      <c r="BZ8" s="72"/>
+      <c r="CA8" s="72"/>
+      <c r="CB8" s="72"/>
+      <c r="CC8" s="78"/>
+      <c r="CD8" s="78"/>
+      <c r="CE8" s="78"/>
+      <c r="CF8" s="78"/>
+      <c r="CG8" s="78"/>
+    </row>
+    <row r="9" spans="1:85">
       <c r="A9" s="43">
         <v>2021</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="42">
         <v>13899456422.16</v>
@@ -3245,36 +3355,41 @@
         <f>BQ9*(1-$E9/$D9)</f>
         <v>-3016715930.23815</v>
       </c>
-      <c r="BW9" s="71">
+      <c r="BW9" s="62"/>
+      <c r="BX9" s="72"/>
+      <c r="BY9" s="72"/>
+      <c r="BZ9" s="72"/>
+      <c r="CA9" s="72"/>
+      <c r="CB9" s="72">
         <v>808678476</v>
       </c>
-      <c r="BX9" s="70">
-        <f>BR9/$BW9</f>
+      <c r="CC9" s="78">
+        <f>BR9/$CB9</f>
         <v>14.5153893054879</v>
       </c>
-      <c r="BY9" s="70">
-        <f>BS9/$BW9</f>
+      <c r="CD9" s="78">
+        <f>BS9/$CB9</f>
         <v>30.8848573629115</v>
       </c>
-      <c r="BZ9" s="70">
-        <f>BT9/$BW9</f>
+      <c r="CE9" s="78">
+        <f>BT9/$CB9</f>
         <v>39.1807706015428</v>
       </c>
-      <c r="CA9" s="70">
-        <f>BU9/$BW9</f>
+      <c r="CF9" s="78">
+        <f>BU9/$CB9</f>
         <v>47.673347843815</v>
       </c>
-      <c r="CB9" s="70">
-        <f>BV9/$BW9</f>
+      <c r="CG9" s="78">
+        <f>BV9/$CB9</f>
         <v>-3.7304268875312</v>
       </c>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:85">
       <c r="A10" s="43">
         <v>2021</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
@@ -3438,34 +3553,39 @@
         <f>BQ10*(1-$E10/$D10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BW10" s="59"/>
-      <c r="BX10" s="70" t="e">
-        <f>BR10/$BW10</f>
+      <c r="BW10" s="62"/>
+      <c r="BX10" s="59"/>
+      <c r="BY10" s="59"/>
+      <c r="BZ10" s="59"/>
+      <c r="CA10" s="59"/>
+      <c r="CB10" s="59"/>
+      <c r="CC10" s="78" t="e">
+        <f>BR10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BY10" s="70" t="e">
-        <f>BS10/$BW10</f>
+      <c r="CD10" s="78" t="e">
+        <f>BS10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="BZ10" s="70" t="e">
-        <f>BT10/$BW10</f>
+      <c r="CE10" s="78" t="e">
+        <f>BT10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CA10" s="70" t="e">
-        <f>BU10/$BW10</f>
+      <c r="CF10" s="78" t="e">
+        <f>BU10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="CB10" s="70" t="e">
-        <f>BV10/$BW10</f>
+      <c r="CG10" s="78" t="e">
+        <f>BV10/$CB10</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:85">
       <c r="A11" s="43">
         <v>2021</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="42">
         <v>6369307875.78</v>
@@ -3667,36 +3787,41 @@
         <f>BQ11*(1-$E11/$D11)</f>
         <v>848350864.719488</v>
       </c>
-      <c r="BW11" s="59">
+      <c r="BW11" s="62"/>
+      <c r="BX11" s="59"/>
+      <c r="BY11" s="59"/>
+      <c r="BZ11" s="59"/>
+      <c r="CA11" s="59"/>
+      <c r="CB11" s="59">
         <v>405950150</v>
       </c>
-      <c r="BX11" s="70">
-        <f>BR11/$BW11</f>
+      <c r="CC11" s="78">
+        <f>BR11/$CB11</f>
         <v>10.9934368393579</v>
       </c>
-      <c r="BY11" s="70">
-        <f>BS11/$BW11</f>
+      <c r="CD11" s="78">
+        <f>BS11/$CB11</f>
         <v>21.6983924755989</v>
       </c>
-      <c r="BZ11" s="70">
-        <f>BT11/$BW11</f>
+      <c r="CE11" s="78">
+        <f>BT11/$CB11</f>
         <v>29.2457097758071</v>
       </c>
-      <c r="CA11" s="70">
-        <f>BU11/$BW11</f>
+      <c r="CF11" s="78">
+        <f>BU11/$CB11</f>
         <v>36.8898392632888</v>
       </c>
-      <c r="CB11" s="70">
-        <f>BV11/$BW11</f>
+      <c r="CG11" s="78">
+        <f>BV11/$CB11</f>
         <v>2.08979074085694</v>
       </c>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:85">
       <c r="A12" s="43">
         <v>2021</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="42">
         <v>55127388384.03</v>
@@ -3918,36 +4043,41 @@
         <f>BQ12*(1-$E12/$D12)</f>
         <v>2341084682.42751</v>
       </c>
-      <c r="BW12" s="59">
+      <c r="BW12" s="62"/>
+      <c r="BX12" s="59"/>
+      <c r="BY12" s="59"/>
+      <c r="BZ12" s="59"/>
+      <c r="CA12" s="59"/>
+      <c r="CB12" s="59">
         <v>2955826899</v>
       </c>
-      <c r="BX12" s="70">
-        <f>BR12/$BW12</f>
+      <c r="CC12" s="78">
+        <f>BR12/$CB12</f>
         <v>8.06076430087699</v>
       </c>
-      <c r="BY12" s="70">
-        <f>BS12/$BW12</f>
+      <c r="CD12" s="78">
+        <f>BS12/$CB12</f>
         <v>20.5399258153695</v>
       </c>
-      <c r="BZ12" s="70">
-        <f>BT12/$BW12</f>
+      <c r="CE12" s="78">
+        <f>BT12/$CB12</f>
         <v>31.2766221233569</v>
       </c>
-      <c r="CA12" s="70">
-        <f>BU12/$BW12</f>
+      <c r="CF12" s="78">
+        <f>BU12/$CB12</f>
         <v>42.6416260099728</v>
       </c>
-      <c r="CB12" s="70">
-        <f>BV12/$BW12</f>
+      <c r="CG12" s="78">
+        <f>BV12/$CB12</f>
         <v>0.792023607072368</v>
       </c>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:85">
       <c r="A13" s="43">
         <v>2021</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -4051,19 +4181,24 @@
       <c r="BT13" s="62"/>
       <c r="BU13" s="62"/>
       <c r="BV13" s="62"/>
-      <c r="BW13" s="59"/>
-      <c r="BX13" s="70"/>
-      <c r="BY13" s="70"/>
-      <c r="BZ13" s="70"/>
-      <c r="CA13" s="70"/>
-      <c r="CB13" s="70"/>
-    </row>
-    <row r="14" spans="1:80">
+      <c r="BW13" s="62"/>
+      <c r="BX13" s="59"/>
+      <c r="BY13" s="59"/>
+      <c r="BZ13" s="59"/>
+      <c r="CA13" s="59"/>
+      <c r="CB13" s="59"/>
+      <c r="CC13" s="78"/>
+      <c r="CD13" s="78"/>
+      <c r="CE13" s="78"/>
+      <c r="CF13" s="78"/>
+      <c r="CG13" s="78"/>
+    </row>
+    <row r="14" spans="1:85">
       <c r="A14" s="43">
         <v>2021</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43"/>
@@ -4167,15 +4302,20 @@
       <c r="BT14" s="62"/>
       <c r="BU14" s="62"/>
       <c r="BV14" s="62"/>
-      <c r="BW14" s="59"/>
-      <c r="BX14" s="70"/>
-      <c r="BY14" s="70"/>
-      <c r="BZ14" s="70"/>
-      <c r="CA14" s="70"/>
-      <c r="CB14" s="70"/>
+      <c r="BW14" s="62"/>
+      <c r="BX14" s="59"/>
+      <c r="BY14" s="59"/>
+      <c r="BZ14" s="59"/>
+      <c r="CA14" s="59"/>
+      <c r="CB14" s="59"/>
+      <c r="CC14" s="78"/>
+      <c r="CD14" s="78"/>
+      <c r="CE14" s="78"/>
+      <c r="CF14" s="78"/>
+      <c r="CG14" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="K1:T1"/>
     <mergeCell ref="U1:AD1"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -4183,7 +4323,8 @@
     <mergeCell ref="BG1:BK1"/>
     <mergeCell ref="BM1:BQ1"/>
     <mergeCell ref="BR1:BV1"/>
-    <mergeCell ref="BX1:CB1"/>
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="CC1:CG1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -4213,7 +4354,7 @@
     <mergeCell ref="AZ1:AZ2"/>
     <mergeCell ref="BA1:BA2"/>
     <mergeCell ref="BL1:BL2"/>
-    <mergeCell ref="BW1:BW2"/>
+    <mergeCell ref="CB1:CB2"/>
     <mergeCell ref="AH1:AI2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4293,43 +4434,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>16</v>
@@ -4347,133 +4488,133 @@
         <v>8</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG1" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AH1" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AP1" s="24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AQ1" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AR1" s="26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AS1" s="27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AT1" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AU1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AY1" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AZ1" s="26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="BA1" s="27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="BB1" s="32" t="s">
         <v>4</v>
       </c>
       <c r="BC1" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="BF1" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BG1" s="27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BI1" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BJ1" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BK1" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -4481,7 +4622,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
@@ -4493,7 +4634,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -4502,7 +4643,7 @@
         <v>2013</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -4511,7 +4652,7 @@
         <v>2014</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -4520,7 +4661,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2"/>
       <c r="K6" s="1">
@@ -4538,7 +4679,7 @@
         <v>2016</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2">
         <v>395710676.7</v>
@@ -4600,7 +4741,7 @@
         <v>2017</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2">
         <v>588460089.51</v>
@@ -4704,7 +4845,7 @@
         <v>2018</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2">
         <v>929680667.61</v>
@@ -4825,7 +4966,7 @@
         <v>2019</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2">
         <v>1085007826.8</v>
@@ -4865,7 +5006,7 @@
         <v>2020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2">
         <v>1267407527.03</v>
@@ -4915,7 +5056,7 @@
         <v>2021</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2">
         <v>1252157377.5</v>
@@ -5098,7 +5239,7 @@
     </row>
     <row r="13" s="9" customFormat="1" spans="1:64">
       <c r="A13" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -5175,7 +5316,7 @@
         <v>2010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="E14" s="4">
@@ -5199,7 +5340,7 @@
         <v>2011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2"/>
       <c r="E15" s="4">
@@ -5226,7 +5367,7 @@
         <v>2012</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2"/>
       <c r="E16" s="4">
@@ -5253,7 +5394,7 @@
         <v>2013</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2"/>
       <c r="E17" s="4">
@@ -5280,7 +5421,7 @@
         <v>2014</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2"/>
       <c r="E18" s="4">
@@ -5307,7 +5448,7 @@
         <v>2015</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="E19" s="4">
@@ -5340,7 +5481,7 @@
         <v>2016</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2"/>
       <c r="E20" s="4">
@@ -5373,7 +5514,7 @@
         <v>2017</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="2"/>
       <c r="E21" s="4">
@@ -5406,7 +5547,7 @@
         <v>2018</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2"/>
       <c r="E22" s="4">
@@ -5439,7 +5580,7 @@
         <v>2019</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="4">
@@ -5472,7 +5613,7 @@
         <v>2020</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="4">
@@ -5505,7 +5646,7 @@
         <v>2021</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" s="2"/>
       <c r="E25" s="4">
@@ -5535,7 +5676,7 @@
     </row>
     <row r="26" s="9" customFormat="1" spans="1:64">
       <c r="A26" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -5606,7 +5747,7 @@
         <v>2014</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="2"/>
       <c r="E27" s="4">
@@ -5633,7 +5774,7 @@
         <v>2015</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2"/>
       <c r="E28" s="4">
@@ -5666,7 +5807,7 @@
         <v>2016</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2"/>
       <c r="E29" s="4">
@@ -5699,7 +5840,7 @@
         <v>2017</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2"/>
       <c r="E30" s="4">
@@ -5732,7 +5873,7 @@
         <v>2018</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2"/>
       <c r="E31" s="4">
@@ -5765,7 +5906,7 @@
         <v>2019</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C32" s="2"/>
       <c r="E32" s="4">
@@ -5798,7 +5939,7 @@
         <v>2020</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="2"/>
       <c r="E33" s="4">
@@ -5831,7 +5972,7 @@
         <v>2021</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="2"/>
       <c r="E34" s="4">
@@ -5864,7 +6005,7 @@
     </row>
     <row r="35" s="9" customFormat="1" spans="1:64">
       <c r="A35" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
@@ -6028,7 +6169,7 @@
         <v>2016</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2"/>
       <c r="F41" s="10">
@@ -6056,7 +6197,7 @@
         <v>2017</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="2">
         <v>13603365.31</v>
@@ -6183,7 +6324,7 @@
         <v>2018</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C43" s="2">
         <v>24552241.13</v>
@@ -6308,7 +6449,7 @@
         <v>2019</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" s="2">
         <v>22800207.39</v>
@@ -6366,7 +6507,7 @@
         <v>2020</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2">
         <v>311766694.47</v>
@@ -6489,7 +6630,7 @@
         <v>2021</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2">
         <v>567016220.34</v>
@@ -6608,7 +6749,7 @@
     </row>
     <row r="47" spans="1:64">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG47" s="11">
         <v>0.12</v>
@@ -6742,7 +6883,7 @@
         <v>2011</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="4">
         <v>0.5286</v>
@@ -6759,7 +6900,7 @@
         <v>2012</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E52" s="4">
         <v>0.3825</v>
@@ -6776,7 +6917,7 @@
         <v>2013</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" s="4">
         <v>0.3616</v>
@@ -6793,7 +6934,7 @@
         <v>2014</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E54" s="4">
         <v>0.4941</v>
@@ -6810,7 +6951,7 @@
         <v>2015</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E55" s="4">
         <v>0.4462</v>
@@ -6833,7 +6974,7 @@
         <v>2016</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="4">
         <v>0.4735</v>
@@ -6856,7 +6997,7 @@
         <v>2017</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E57" s="4">
         <v>0.5668</v>
@@ -6879,7 +7020,7 @@
         <v>2018</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C58" s="2">
         <v>22834483901.03</v>
@@ -6915,7 +7056,7 @@
         <v>2019</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2">
         <v>31009156432.98</v>
@@ -6951,7 +7092,7 @@
         <v>2020</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2">
         <v>52036767690.64</v>
@@ -6987,7 +7128,7 @@
         <v>2021</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2">
         <v>50148006257.57</v>
@@ -7154,7 +7295,7 @@
     </row>
     <row r="62" s="9" customFormat="1" spans="1:64">
       <c r="A62" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -7228,7 +7369,7 @@
         <v>2008</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -7236,7 +7377,7 @@
         <v>2009</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E64" s="4">
         <v>0.4689</v>
@@ -7253,7 +7394,7 @@
         <v>2010</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E65" s="4">
         <v>0.2002</v>
@@ -7270,7 +7411,7 @@
         <v>2011</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E66" s="4">
         <v>0.1289</v>
@@ -7287,7 +7428,7 @@
         <v>2012</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" s="4">
         <v>0.1432</v>
@@ -7304,7 +7445,7 @@
         <v>2013</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E68" s="4">
         <v>0.1901</v>
@@ -7327,7 +7468,7 @@
         <v>2014</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E69" s="4">
         <v>0.1075</v>
@@ -7350,7 +7491,7 @@
         <v>2015</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E70" s="4">
         <v>0.1172</v>
@@ -7373,7 +7514,7 @@
         <v>2016</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E71" s="4">
         <v>0.1192</v>
@@ -7396,7 +7537,7 @@
         <v>2017</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" s="4">
         <v>0.1183</v>
@@ -7419,7 +7560,7 @@
         <v>2018</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E73" s="4">
         <v>0.1394</v>
@@ -7442,7 +7583,7 @@
         <v>2019</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E74" s="4">
         <v>0.2138</v>
@@ -7465,7 +7606,7 @@
         <v>2020</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" s="4">
         <v>0.2179</v>
@@ -7488,7 +7629,7 @@
         <v>2021</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E76" s="4">
         <v>0.1094</v>
@@ -7508,7 +7649,7 @@
     </row>
     <row r="77" s="9" customFormat="1" spans="1:64">
       <c r="A77" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -7582,7 +7723,7 @@
         <v>2014</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J78" s="1">
         <v>14.29</v>
@@ -7596,7 +7737,7 @@
         <v>2015</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J79" s="1">
         <v>13.8</v>
@@ -7610,7 +7751,7 @@
         <v>2016</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J80" s="1">
         <v>14.38</v>
@@ -7624,7 +7765,7 @@
         <v>2017</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J81" s="1">
         <v>16.07</v>
@@ -7638,7 +7779,7 @@
         <v>2018</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J82" s="1">
         <v>14.43</v>
@@ -7652,7 +7793,7 @@
         <v>2019</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J83" s="1">
         <v>16.14</v>
@@ -7666,7 +7807,7 @@
         <v>2020</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J84" s="1">
         <v>16.13</v>
@@ -7680,7 +7821,7 @@
         <v>2021</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J85" s="1">
         <v>24.24</v>
@@ -7691,7 +7832,7 @@
     </row>
     <row r="86" s="9" customFormat="1" spans="1:64">
       <c r="A86" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -7765,7 +7906,7 @@
         <v>2011</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E87" s="4">
         <v>0.3549</v>
@@ -7782,7 +7923,7 @@
         <v>2012</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E88" s="4">
         <v>0.3566</v>
@@ -7799,7 +7940,7 @@
         <v>2013</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E89" s="4">
         <v>0.3016</v>
@@ -7816,7 +7957,7 @@
         <v>2014</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E90" s="4">
         <v>0.3401</v>
@@ -7833,7 +7974,7 @@
         <v>2015</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E91" s="4">
         <v>0.3658</v>
@@ -7856,7 +7997,7 @@
         <v>2016</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E92" s="4">
         <v>0.2339</v>
@@ -7879,7 +8020,7 @@
         <v>2017</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E93" s="4">
         <v>0.3174</v>
@@ -7902,7 +8043,7 @@
         <v>2018</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E94" s="4">
         <v>0.3368</v>
@@ -7925,7 +8066,7 @@
         <v>2019</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E95" s="4">
         <v>0.1535</v>
@@ -7948,7 +8089,7 @@
         <v>2020</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E96" s="4">
         <v>0.0868</v>
@@ -7971,7 +8112,7 @@
         <v>2021</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E97" s="4">
         <v>0.1255</v>
@@ -7994,7 +8135,7 @@
     </row>
     <row r="98" s="9" customFormat="1" spans="1:64">
       <c r="A98" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -8068,7 +8209,7 @@
         <v>2018</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E99" s="4">
         <v>0.2592</v>
@@ -8085,7 +8226,7 @@
         <v>2019</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E100" s="4">
         <v>0.1939</v>
@@ -8108,7 +8249,7 @@
         <v>2020</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E101" s="4">
         <v>0.0871</v>
@@ -8131,7 +8272,7 @@
         <v>2021</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E102" s="4">
         <v>0.0707</v>
@@ -8151,7 +8292,7 @@
     </row>
     <row r="103" s="9" customFormat="1" spans="1:64">
       <c r="A103" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -8222,7 +8363,7 @@
         <v>2012</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" s="4">
         <v>0.5841</v>
@@ -8239,7 +8380,7 @@
         <v>2013</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E105" s="4">
         <v>0.5518</v>
@@ -8256,7 +8397,7 @@
         <v>2014</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E106" s="4">
         <v>0.5474</v>
@@ -8273,7 +8414,7 @@
         <v>2015</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E107" s="4">
         <v>0.5558</v>
@@ -8290,7 +8431,7 @@
         <v>2016</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E108" s="4">
         <v>0.5085</v>
@@ -8307,7 +8448,7 @@
         <v>2017</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E109" s="4">
         <v>0.5785</v>
@@ -8324,7 +8465,7 @@
         <v>2018</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E110" s="4">
         <v>0.6425</v>
@@ -8341,7 +8482,7 @@
         <v>2019</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E111" s="4">
         <v>0.5448</v>
@@ -8358,7 +8499,7 @@
         <v>2020</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E112" s="4">
         <v>0.4911</v>
@@ -8375,7 +8516,7 @@
         <v>2021</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E113" s="4">
         <v>0.4918</v>
@@ -8389,7 +8530,7 @@
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -8397,7 +8538,7 @@
         <v>2013</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115" s="4">
         <v>0.2359</v>
@@ -8414,7 +8555,7 @@
         <v>2014</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E116" s="4">
         <v>0.2479</v>
@@ -8431,7 +8572,7 @@
         <v>2015</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E117" s="4">
         <v>0.2894</v>
@@ -8448,7 +8589,7 @@
         <v>2016</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E118" s="4">
         <v>0.2666</v>
@@ -8465,7 +8606,7 @@
         <v>2017</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E119" s="4">
         <v>0.3212</v>
@@ -8482,7 +8623,7 @@
         <v>2018</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E120" s="4">
         <v>0.3362</v>
@@ -8499,7 +8640,7 @@
         <v>2019</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E121" s="4">
         <v>0.3822</v>
@@ -8516,7 +8657,7 @@
         <v>2020</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E122" s="4">
         <v>0.3487</v>
@@ -8533,7 +8674,7 @@
         <v>2021</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E123" s="4">
         <v>0.371</v>
@@ -8547,7 +8688,7 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8555,7 +8696,7 @@
         <v>2013</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E125" s="4">
         <v>0.6007</v>
@@ -8572,7 +8713,7 @@
         <v>2014</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E126" s="4">
         <v>0.4994</v>
@@ -8589,7 +8730,7 @@
         <v>2015</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E127" s="4">
         <v>0.6519</v>
@@ -8606,7 +8747,7 @@
         <v>2016</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E128" s="4">
         <v>0.5842</v>
@@ -8623,7 +8764,7 @@
         <v>2017</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E129" s="4">
         <v>0.5322</v>
@@ -8640,7 +8781,7 @@
         <v>2018</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E130" s="4">
         <v>0.4066</v>
@@ -8657,7 +8798,7 @@
         <v>2019</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E131" s="4">
         <v>0.4263</v>
@@ -8674,7 +8815,7 @@
         <v>2020</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E132" s="4">
         <v>0.4948</v>
@@ -8691,7 +8832,7 @@
         <v>2021</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E133" s="4">
         <v>0.5236</v>
@@ -8705,7 +8846,7 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8713,7 +8854,7 @@
         <v>2009</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8721,7 +8862,7 @@
         <v>2010</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8729,7 +8870,7 @@
         <v>2011</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -8737,7 +8878,7 @@
         <v>2012</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8745,7 +8886,7 @@
         <v>2013</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8753,7 +8894,7 @@
         <v>2014</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8761,7 +8902,7 @@
         <v>2015</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -8769,7 +8910,7 @@
         <v>2016</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8777,7 +8918,7 @@
         <v>2017</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8785,7 +8926,7 @@
         <v>2018</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8793,7 +8934,7 @@
         <v>2019</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -8801,7 +8942,7 @@
         <v>2020</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8809,12 +8950,12 @@
         <v>2021</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="148" s="9" customFormat="1" spans="1:64">
       <c r="A148" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -8885,7 +9026,7 @@
         <v>2010</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -8893,7 +9034,7 @@
         <v>2011</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -8901,7 +9042,7 @@
         <v>2012</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -8909,7 +9050,7 @@
         <v>2013</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -8917,7 +9058,7 @@
         <v>2014</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -8925,7 +9066,7 @@
         <v>2015</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -8933,7 +9074,7 @@
         <v>2016</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8941,7 +9082,7 @@
         <v>2017</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -8949,7 +9090,7 @@
         <v>2018</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -8957,7 +9098,7 @@
         <v>2019</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -8965,7 +9106,7 @@
         <v>2020</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -8973,12 +9114,12 @@
         <v>2021</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -8987,12 +9128,12 @@
     </row>
     <row r="163" spans="2:2">
       <c r="B163" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -9035,31 +9176,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -9096,25 +9237,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9122,7 +9263,7 @@
         <v>2012</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1">
         <v>5.15</v>
@@ -9136,7 +9277,7 @@
         <v>2013</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1">
         <v>5.51</v>
@@ -9150,7 +9291,7 @@
         <v>2014</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>4.98</v>
@@ -9164,7 +9305,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1">
         <v>3.23</v>
@@ -9178,7 +9319,7 @@
         <v>2016</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>3.7</v>
@@ -9192,7 +9333,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1">
         <v>4.35</v>
@@ -9206,7 +9347,7 @@
         <v>2018</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1">
         <v>5.14</v>
@@ -9220,7 +9361,7 @@
         <v>2019</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1">
         <v>6.14</v>
@@ -9234,7 +9375,7 @@
         <v>2020</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1">
         <v>6.19</v>
@@ -9248,7 +9389,7 @@
         <v>2021</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1">
         <v>5.56</v>
@@ -9259,7 +9400,7 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -9286,7 +9427,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1">
         <v>4.78</v>
@@ -9300,7 +9441,7 @@
         <v>2013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1">
         <v>5.23</v>
@@ -9314,7 +9455,7 @@
         <v>2014</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1">
         <v>5.98</v>
@@ -9328,7 +9469,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1">
         <v>6.99</v>
@@ -9342,7 +9483,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1">
         <v>7.19</v>
@@ -9356,7 +9497,7 @@
         <v>2017</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1">
         <v>6.33</v>
@@ -9370,7 +9511,7 @@
         <v>2018</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1">
         <v>7.19</v>
@@ -9384,7 +9525,7 @@
         <v>2019</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1">
         <v>8.33</v>
@@ -9398,7 +9539,7 @@
         <v>2020</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1">
         <v>8.77</v>
@@ -9412,7 +9553,7 @@
         <v>2021</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
         <v>9.43</v>
@@ -9423,7 +9564,7 @@
     </row>
     <row r="23" s="3" customFormat="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -9450,10 +9591,10 @@
         <v>2014</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D24" s="1">
         <v>0.97</v>
@@ -9464,7 +9605,7 @@
         <v>2015</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1">
         <v>5.34</v>
@@ -9478,7 +9619,7 @@
         <v>2016</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1">
         <v>5.59</v>
@@ -9492,7 +9633,7 @@
         <v>2017</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1">
         <v>6.99</v>
@@ -9506,7 +9647,7 @@
         <v>2018</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1">
         <v>12.26</v>
@@ -9520,7 +9661,7 @@
         <v>2019</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1">
         <v>10.34</v>
@@ -9534,7 +9675,7 @@
         <v>2020</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="1">
         <v>11.38</v>
@@ -9548,7 +9689,7 @@
         <v>2021</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>13.36</v>
@@ -9559,7 +9700,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -9583,7 +9724,7 @@
         <v>2012</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1">
         <v>8.49</v>
@@ -9597,7 +9738,7 @@
         <v>2013</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1">
         <v>9.84</v>
@@ -9611,7 +9752,7 @@
         <v>2014</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C35" s="1">
         <v>11.36</v>
@@ -9625,7 +9766,7 @@
         <v>2015</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="1">
         <v>14.39</v>
@@ -9639,7 +9780,7 @@
         <v>2016</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1">
         <v>8.53</v>
@@ -9653,7 +9794,7 @@
         <v>2017</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C38" s="1">
         <v>9.37</v>
@@ -9667,7 +9808,7 @@
         <v>2018</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="1">
         <v>9.46</v>
@@ -9681,7 +9822,7 @@
         <v>2019</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1">
         <v>9.42</v>
@@ -9695,7 +9836,7 @@
         <v>2020</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="1">
         <v>10.13</v>
@@ -9709,7 +9850,7 @@
         <v>2021</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="1">
         <v>12.41</v>
@@ -9720,7 +9861,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -9744,7 +9885,7 @@
         <v>2014</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1">
         <v>16.79</v>
@@ -9758,7 +9899,7 @@
         <v>2015</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
         <v>21.72</v>
@@ -9772,7 +9913,7 @@
         <v>2016</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="1">
         <v>5.94</v>
@@ -9786,7 +9927,7 @@
         <v>2017</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="1">
         <v>6.76</v>
@@ -9800,7 +9941,7 @@
         <v>2018</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1">
         <v>17.45</v>
@@ -9814,7 +9955,7 @@
         <v>2019</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1">
         <v>10.49</v>
@@ -9828,7 +9969,7 @@
         <v>2020</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1">
         <v>13.31</v>
@@ -9842,7 +9983,7 @@
         <v>2021</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="1">
         <v>13.02</v>
@@ -9853,7 +9994,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6">
@@ -9877,7 +10018,7 @@
         <v>2012</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1">
         <v>0.87</v>
@@ -9891,7 +10032,7 @@
         <v>2013</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="1">
         <v>0.88</v>
@@ -9905,7 +10046,7 @@
         <v>2014</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="1">
         <v>1.35</v>
@@ -9919,7 +10060,7 @@
         <v>2015</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="1">
         <v>1.36</v>
@@ -9933,7 +10074,7 @@
         <v>2016</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="1">
         <v>2.52</v>
@@ -9947,7 +10088,7 @@
         <v>2017</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="1">
         <v>2.97</v>
@@ -9961,7 +10102,7 @@
         <v>2018</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="1">
         <v>3.86</v>
@@ -9975,7 +10116,7 @@
         <v>2019</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="1">
         <v>4.75</v>
@@ -9989,7 +10130,7 @@
         <v>2020</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1">
         <v>7.49</v>
@@ -10003,7 +10144,7 @@
         <v>2021</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="1">
         <v>7.81</v>
@@ -10014,7 +10155,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6">
@@ -10038,7 +10179,7 @@
         <v>2012</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C64" s="1">
         <v>4.22</v>
@@ -10052,7 +10193,7 @@
         <v>2013</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1">
         <v>4.67</v>
@@ -10066,7 +10207,7 @@
         <v>2014</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="1">
         <v>5.27</v>
@@ -10080,7 +10221,7 @@
         <v>2015</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1">
         <v>5.08</v>
@@ -10094,7 +10235,7 @@
         <v>2016</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68" s="1">
         <v>5.28</v>
@@ -10108,7 +10249,7 @@
         <v>2017</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" s="1">
         <v>5.43</v>
@@ -10122,7 +10263,7 @@
         <v>2018</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1">
         <v>5.35</v>
@@ -10136,7 +10277,7 @@
         <v>2019</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" s="1">
         <v>5.6</v>
@@ -10150,7 +10291,7 @@
         <v>2020</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" s="1">
         <v>5.72</v>
@@ -10164,7 +10305,7 @@
         <v>2021</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" s="1">
         <v>5.47</v>
@@ -10175,7 +10316,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6">
@@ -10222,25 +10363,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -10248,7 +10389,7 @@
         <v>2021</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1941371527.89</v>
